--- a/belize_data/raw/unctad_belize_fish.xlsx
+++ b/belize_data/raw/unctad_belize_fish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gdrive\My Drive\Econ PhD\Work 2023\Quota baskets\qp_model_cc\chris_free\cc_quota_baskets\data\karr\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newgdrive\My Drive\Econ PhD\Work 2023\Quota baskets\belize_basket\belize_data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4FEFC-703F-4423-8687-AC1480A92712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FA6F8F-1C7E-497F-B3DA-1C7FAE2DE2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45EBC26F-2D09-2540-A5EC-84CB54817139}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45EBC26F-2D09-2540-A5EC-84CB54817139}"/>
   </bookViews>
   <sheets>
     <sheet name="Long_data (2)" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5480" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5484" uniqueCount="274">
   <si>
     <t>Caranx hippos</t>
   </si>
@@ -895,14 +895,24 @@
   <si>
     <t>basket_id</t>
   </si>
+  <si>
+    <t>Mutton</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1156,89 +1166,89 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1247,13 +1257,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1275,11 +1285,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,17 +1297,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1315,6 +1318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1324,10 +1328,8 @@
   <dxfs count="9">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -1339,8 +1341,10 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -1365,35 +1369,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1441,13 +1416,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1460,6 +1428,42 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2046,7 +2050,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A546921-02C5-4F1F-8BED-7AEC9A52E745}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A546921-02C5-4F1F-8BED-7AEC9A52E745}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -2232,15 +2236,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCC73DA5-F49D-4E4A-90B6-D1DE0983E869}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCC73DA5-F49D-4E4A-90B6-D1DE0983E869}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DA656330-B519-4F90-8873-5DE04C683203}" name="Basket" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{438EFA53-14C1-4EEB-9004-2D925D8FC001}" name="Species" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{DA656330-B519-4F90-8873-5DE04C683203}" name="Basket" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{438EFA53-14C1-4EEB-9004-2D925D8FC001}" name="Species" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{906B853C-B34D-4CC1-A1D2-C3505DB7E637}" name="Species w/ data" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0E094CC3-502F-4918-931D-3980B14E54B8}" name="%" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{0E094CC3-502F-4918-931D-3980B14E54B8}" name="%" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>+Table1[[#This Row],[Species w/ data]]/Table1[[#This Row],[Species]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{ABFADA8A-AC61-40E6-AF45-AC7935EA02BD}" name="Indicator species?" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{ABFADA8A-AC61-40E6-AF45-AC7935EA02BD}" name="Indicator species?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2546,7 +2550,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="A1:H49"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2554,7 +2558,7 @@
     <col min="1" max="1" width="6.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.09765625" customWidth="1"/>
-    <col min="4" max="5" width="7" style="56" customWidth="1"/>
+    <col min="4" max="5" width="7" style="53" customWidth="1"/>
     <col min="6" max="6" width="15.3984375" customWidth="1"/>
     <col min="7" max="7" width="9.59765625" customWidth="1"/>
     <col min="8" max="8" width="28.3984375" customWidth="1"/>
@@ -2587,1250 +2591,1250 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="54">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54">
-        <v>1</v>
-      </c>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="51">
+        <v>1</v>
+      </c>
+      <c r="E2" s="51">
+        <v>1</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="51">
         <v>0</v>
       </c>
-      <c r="E3" s="54">
-        <v>1</v>
-      </c>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="51">
+        <v>1</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="51">
         <v>0</v>
       </c>
-      <c r="E4" s="54">
-        <v>1</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="51">
+        <v>1</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="51">
         <v>0</v>
       </c>
-      <c r="E5" s="54">
-        <v>1</v>
-      </c>
-      <c r="F5" s="53" t="s">
+      <c r="E5" s="51">
+        <v>1</v>
+      </c>
+      <c r="F5" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="51">
         <v>0</v>
       </c>
-      <c r="E6" s="54">
-        <v>1</v>
-      </c>
-      <c r="F6" s="53" t="s">
+      <c r="E6" s="51">
+        <v>1</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="51">
         <v>0</v>
       </c>
-      <c r="E7" s="54">
-        <v>1</v>
-      </c>
-      <c r="F7" s="53" t="s">
+      <c r="E7" s="51">
+        <v>1</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="51">
         <v>0</v>
       </c>
-      <c r="E8" s="54">
-        <v>1</v>
-      </c>
-      <c r="F8" s="53" t="s">
+      <c r="E8" s="51">
+        <v>1</v>
+      </c>
+      <c r="F8" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="51">
         <v>0</v>
       </c>
-      <c r="E9" s="54">
-        <v>1</v>
-      </c>
-      <c r="F9" s="53" t="s">
+      <c r="E9" s="51">
+        <v>1</v>
+      </c>
+      <c r="F9" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="52">
         <v>0</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="52">
         <v>2</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="52">
         <v>0</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="52">
         <v>2</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="52">
         <v>0</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="52">
         <v>2</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="52">
         <v>0</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="52">
         <v>2</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="55">
-        <v>1</v>
-      </c>
-      <c r="E14" s="55">
+      <c r="D14" s="52">
+        <v>1</v>
+      </c>
+      <c r="E14" s="52">
         <v>2</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="52">
         <v>0</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="52">
         <v>2</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="54">
-        <v>1</v>
-      </c>
-      <c r="E16" s="54">
+      <c r="D16" s="51">
+        <v>1</v>
+      </c>
+      <c r="E16" s="51">
         <v>3</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="50" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="51">
         <v>0</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="51">
         <v>3</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="50" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="51">
         <v>0</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="51">
         <v>3</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="50" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="51">
         <v>0</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="51">
         <v>3</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="50" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="52">
         <v>0</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="52">
         <v>4</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="52">
         <v>0</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="52">
         <v>4</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="55">
-        <v>1</v>
-      </c>
-      <c r="E22" s="55">
+      <c r="D22" s="52">
+        <v>1</v>
+      </c>
+      <c r="E22" s="52">
         <v>4</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="52">
         <v>0</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="52">
         <v>4</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="52">
         <v>0</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="52">
         <v>4</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="52">
         <v>0</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="52">
         <v>4</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="51">
         <v>0</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="51">
         <v>5</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="50" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="51">
         <v>0</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="51">
         <v>5</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="50" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="52">
         <v>0</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="52">
         <v>6</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="52">
         <v>0</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="52">
         <v>6</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="55">
-        <v>1</v>
-      </c>
-      <c r="E30" s="55">
+      <c r="D30" s="52">
+        <v>1</v>
+      </c>
+      <c r="E30" s="52">
         <v>6</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H30" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="53" t="s">
+      <c r="B31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="54">
-        <v>1</v>
-      </c>
-      <c r="E31" s="54">
+      <c r="D31" s="51">
+        <v>1</v>
+      </c>
+      <c r="E31" s="51">
         <v>7</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="50" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="51">
         <v>0</v>
       </c>
-      <c r="E32" s="54">
+      <c r="E32" s="51">
         <v>7</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="50" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="51">
         <v>0</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="51">
         <v>7</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="50" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="51">
         <v>0</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="51">
         <v>7</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="50" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="51">
         <v>0</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="51">
         <v>7</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="53" t="s">
+      <c r="G35" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="50" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="52">
         <v>0</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="52">
         <v>8</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="52" t="s">
+      <c r="H36" s="49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="52">
         <v>0</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="52">
         <v>8</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="52" t="s">
+      <c r="H37" s="49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="55">
-        <v>1</v>
-      </c>
-      <c r="E38" s="55">
+      <c r="D38" s="52">
+        <v>1</v>
+      </c>
+      <c r="E38" s="52">
         <v>8</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="52">
         <v>0</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="52">
         <v>8</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="54">
-        <v>1</v>
-      </c>
-      <c r="E40" s="54">
+      <c r="D40" s="51">
+        <v>1</v>
+      </c>
+      <c r="E40" s="51">
         <v>9</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="F40" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="G40" s="53" t="s">
+      <c r="G40" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H40" s="53" t="s">
+      <c r="H40" s="50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D41" s="51">
         <v>0</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E41" s="51">
         <v>9</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F41" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="53" t="s">
+      <c r="G41" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="53" t="s">
+      <c r="H41" s="50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D42" s="51">
         <v>0</v>
       </c>
-      <c r="E42" s="54">
+      <c r="E42" s="51">
         <v>9</v>
       </c>
-      <c r="F42" s="53" t="s">
+      <c r="F42" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="51">
         <v>0</v>
       </c>
-      <c r="E43" s="54">
+      <c r="E43" s="51">
         <v>9</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="55">
-        <v>1</v>
-      </c>
-      <c r="E44" s="55">
+      <c r="D44" s="52">
+        <v>1</v>
+      </c>
+      <c r="E44" s="52">
         <v>10</v>
       </c>
-      <c r="F44" s="52" t="s">
+      <c r="F44" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="G44" s="52" t="s">
+      <c r="G44" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="H44" s="52" t="s">
+      <c r="H44" s="49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="55">
+      <c r="D45" s="52">
         <v>0</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="52">
         <v>10</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="52" t="s">
+      <c r="H45" s="49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="54">
-        <v>1</v>
-      </c>
-      <c r="E46" s="54">
+      <c r="D46" s="51">
+        <v>1</v>
+      </c>
+      <c r="E46" s="51">
         <v>11</v>
       </c>
-      <c r="F46" s="53" t="s">
+      <c r="F46" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="G46" s="53" t="s">
+      <c r="G46" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="50" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="55">
-        <v>1</v>
-      </c>
-      <c r="E47" s="55">
+      <c r="D47" s="52">
+        <v>1</v>
+      </c>
+      <c r="E47" s="52">
         <v>12</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F47" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="G47" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="52" t="s">
+      <c r="H47" s="49" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="54">
+      <c r="D48" s="51">
         <v>0</v>
       </c>
-      <c r="E48" s="54">
+      <c r="E48" s="51">
         <v>13</v>
       </c>
-      <c r="F48" s="53" t="s">
+      <c r="F48" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="G48" s="53" t="s">
+      <c r="G48" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="53" t="s">
+      <c r="H48" s="50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="54">
-        <v>1</v>
-      </c>
-      <c r="E49" s="54">
+      <c r="D49" s="51">
+        <v>1</v>
+      </c>
+      <c r="E49" s="51">
         <v>13</v>
       </c>
-      <c r="F49" s="53" t="s">
+      <c r="F49" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="G49" s="53" t="s">
+      <c r="G49" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3843,8 +3847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F13091A-4258-44D6-A4A6-BE34CCCF5C90}">
   <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3863,598 +3867,598 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="43" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
-        <v>1</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48">
-        <v>1</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45">
+        <v>1</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
-        <v>1</v>
-      </c>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="45">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48">
-        <v>1</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
-        <v>1</v>
-      </c>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="45">
+        <v>1</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48">
-        <v>1</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48">
-        <v>1</v>
-      </c>
-      <c r="L5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45">
+        <v>1</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45">
+        <v>1</v>
+      </c>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
-        <v>1</v>
-      </c>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="45">
+        <v>1</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48">
-        <v>1</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48">
-        <v>1</v>
-      </c>
-      <c r="L6" s="48"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45">
+        <v>1</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45">
+        <v>1</v>
+      </c>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
-        <v>1</v>
-      </c>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="45">
+        <v>1</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48">
-        <v>1</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <v>1</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="49">
+      <c r="A8" s="47">
         <v>2</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51">
-        <v>1</v>
-      </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51">
-        <v>1</v>
-      </c>
-      <c r="L8" s="51"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47">
+        <v>1</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47">
+        <v>1</v>
+      </c>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
+      <c r="A9" s="47">
         <v>2</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51">
-        <v>1</v>
-      </c>
-      <c r="H9" s="51">
-        <v>1</v>
-      </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51">
-        <v>1</v>
-      </c>
-      <c r="L9" s="51"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47">
+        <v>1</v>
+      </c>
+      <c r="H9" s="47">
+        <v>1</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47">
+        <v>1</v>
+      </c>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="49">
+      <c r="A10" s="47">
         <v>2</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51">
-        <v>1</v>
-      </c>
-      <c r="J10" s="51">
-        <v>1</v>
-      </c>
-      <c r="K10" s="51">
-        <v>1</v>
-      </c>
-      <c r="L10" s="51"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47">
+        <v>1</v>
+      </c>
+      <c r="J10" s="47">
+        <v>1</v>
+      </c>
+      <c r="K10" s="47">
+        <v>1</v>
+      </c>
+      <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+      <c r="A11" s="47">
         <v>2</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51">
-        <v>1</v>
-      </c>
-      <c r="H11" s="51">
-        <v>1</v>
-      </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51">
-        <v>1</v>
-      </c>
-      <c r="L11" s="51"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47">
+        <v>1</v>
+      </c>
+      <c r="H11" s="47">
+        <v>1</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47">
+        <v>1</v>
+      </c>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>3</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48">
-        <v>1</v>
-      </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48">
-        <v>1</v>
-      </c>
-      <c r="L12" s="48"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45">
+        <v>1</v>
+      </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45">
+        <v>1</v>
+      </c>
+      <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="49">
+      <c r="A13" s="47">
         <v>4</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51">
-        <v>1</v>
-      </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47">
+        <v>1</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="49">
+      <c r="A14" s="47">
         <v>4</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51">
-        <v>1</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51">
-        <v>1</v>
-      </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51">
-        <v>1</v>
-      </c>
-      <c r="L14" s="51">
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47">
+        <v>1</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47">
+        <v>1</v>
+      </c>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47">
+        <v>1</v>
+      </c>
+      <c r="L14" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>5</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48">
-        <v>1</v>
-      </c>
-      <c r="H15" s="48">
-        <v>1</v>
-      </c>
-      <c r="I15" s="48">
-        <v>1</v>
-      </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48">
-        <v>1</v>
-      </c>
-      <c r="L15" s="48"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45">
+        <v>1</v>
+      </c>
+      <c r="H15" s="45">
+        <v>1</v>
+      </c>
+      <c r="I15" s="45">
+        <v>1</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45">
+        <v>1</v>
+      </c>
+      <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="49">
+      <c r="A16" s="47">
         <v>7</v>
       </c>
-      <c r="B16" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51">
-        <v>1</v>
-      </c>
-      <c r="H16" s="51">
-        <v>1</v>
-      </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51">
-        <v>1</v>
-      </c>
-      <c r="L16" s="51"/>
+      <c r="B16" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47">
+        <v>1</v>
+      </c>
+      <c r="H16" s="47">
+        <v>1</v>
+      </c>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47">
+        <v>1</v>
+      </c>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48">
-        <v>1</v>
-      </c>
-      <c r="H17" s="48">
-        <v>1</v>
-      </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48">
-        <v>1</v>
-      </c>
-      <c r="L17" s="48"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45">
+        <v>1</v>
+      </c>
+      <c r="H17" s="45">
+        <v>1</v>
+      </c>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45">
+        <v>1</v>
+      </c>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="46">
+      <c r="A18" s="45">
         <v>8</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48">
-        <v>1</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48">
-        <v>1</v>
-      </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48">
-        <v>1</v>
-      </c>
-      <c r="L18" s="48"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45">
+        <v>1</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45">
+        <v>1</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45">
+        <v>1</v>
+      </c>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="49">
+      <c r="A19" s="47">
         <v>9</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51">
-        <v>1</v>
-      </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51">
-        <v>1</v>
-      </c>
-      <c r="L19" s="51"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47">
+        <v>1</v>
+      </c>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47">
+        <v>1</v>
+      </c>
+      <c r="L19" s="47"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="49">
+      <c r="A20" s="47">
         <v>9</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51">
-        <v>1</v>
-      </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51">
-        <v>1</v>
-      </c>
-      <c r="L20" s="51"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47">
+        <v>1</v>
+      </c>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47">
+        <v>1</v>
+      </c>
+      <c r="L20" s="47"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="46">
+      <c r="A21" s="45">
         <v>10</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48">
-        <v>1</v>
-      </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48">
-        <v>1</v>
-      </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48">
-        <v>1</v>
-      </c>
-      <c r="L21" s="48"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45">
+        <v>1</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45">
+        <v>1</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45">
+        <v>1</v>
+      </c>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="46">
+      <c r="A22" s="45">
         <v>10</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48">
-        <v>1</v>
-      </c>
-      <c r="H22" s="48">
-        <v>1</v>
-      </c>
-      <c r="I22" s="48">
-        <v>1</v>
-      </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48">
-        <v>1</v>
-      </c>
-      <c r="L22" s="48"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45">
+        <v>1</v>
+      </c>
+      <c r="H22" s="45">
+        <v>1</v>
+      </c>
+      <c r="I22" s="45">
+        <v>1</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45">
+        <v>1</v>
+      </c>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="49">
+      <c r="A23" s="47">
         <v>11</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="51">
-        <v>1</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51">
-        <v>1</v>
-      </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51">
-        <v>1</v>
-      </c>
-      <c r="L23" s="51"/>
+      <c r="C23" s="47">
+        <v>1</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47">
+        <v>1</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47">
+        <v>1</v>
+      </c>
+      <c r="L23" s="47"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="46">
+      <c r="A24" s="45">
         <v>12</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48">
-        <v>1</v>
-      </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48">
-        <v>1</v>
-      </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48">
-        <v>1</v>
-      </c>
-      <c r="L24" s="48"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45">
+        <v>1</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45">
+        <v>1</v>
+      </c>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45">
+        <v>1</v>
+      </c>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="49">
+      <c r="A25" s="47">
         <v>13</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51">
-        <v>1</v>
-      </c>
-      <c r="H25" s="51">
-        <v>1</v>
-      </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51">
-        <v>1</v>
-      </c>
-      <c r="L25" s="51"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47">
+        <v>1</v>
+      </c>
+      <c r="H25" s="47">
+        <v>1</v>
+      </c>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47">
+        <v>1</v>
+      </c>
+      <c r="L25" s="47"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="49">
+      <c r="A26" s="47">
         <v>13</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51">
-        <v>1</v>
-      </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51">
-        <v>1</v>
-      </c>
-      <c r="H26" s="51">
-        <v>1</v>
-      </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51">
-        <v>1</v>
-      </c>
-      <c r="L26" s="51"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47">
+        <v>1</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47">
+        <v>1</v>
+      </c>
+      <c r="H26" s="47">
+        <v>1</v>
+      </c>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47">
+        <v>1</v>
+      </c>
+      <c r="L26" s="47"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L26">
@@ -5767,7 +5771,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6891,10 +6895,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD718E3-4CD3-45AC-A25A-A91C0F788B42}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F1373"/>
+  <dimension ref="A1:J1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1373" sqref="D1369:D1373"/>
+      <selection activeCell="I186" sqref="I186:J190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6921,7 +6925,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -6938,7 +6942,7 @@
         <v>0.3641258356</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -6959,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -7001,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -7043,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -7106,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -7127,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -7169,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -7211,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -7253,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -7274,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -7295,7 +7299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -7337,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -7358,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -7379,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -7400,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -7421,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -7442,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -7463,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -7484,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
@@ -7505,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -7526,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
@@ -7547,7 +7551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
@@ -7568,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -10592,7 +10596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>26</v>
       </c>
@@ -10613,7 +10617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>26</v>
       </c>
@@ -10634,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>26</v>
       </c>
@@ -10655,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>26</v>
       </c>
@@ -10676,7 +10680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>26</v>
       </c>
@@ -10697,7 +10701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>26</v>
       </c>
@@ -10718,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>26</v>
       </c>
@@ -10739,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>26</v>
       </c>
@@ -10760,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>2</v>
       </c>
@@ -10781,7 +10785,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>2</v>
       </c>
@@ -10801,8 +10805,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I186" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="J186" s="5">
+        <f>+AVERAGE(E185:E254)</f>
+        <v>13.483443986389998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>2</v>
       </c>
@@ -10822,8 +10833,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I187" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="J187" s="5">
+        <f>AVERAGE(E605:E674)</f>
+        <v>529.17886755546567</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>2</v>
       </c>
@@ -10844,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>2</v>
       </c>
@@ -10864,8 +10882,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I189" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="J189" s="5">
+        <f>AVERAGE(E245:E254)</f>
+        <v>2.4381148005499997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>2</v>
       </c>
@@ -10885,8 +10910,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I190" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="J190" s="5">
+        <f>AVERAGE(E665:E674)</f>
+        <v>160.90916707039</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>2</v>
       </c>
@@ -10907,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>2</v>
       </c>
@@ -10928,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>2</v>
       </c>
@@ -10949,7 +10981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>2</v>
       </c>
@@ -10970,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>2</v>
       </c>
@@ -10991,7 +11023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>2</v>
       </c>
@@ -11012,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>2</v>
       </c>
@@ -11033,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>2</v>
       </c>
@@ -11054,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>2</v>
       </c>
@@ -11075,7 +11107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>2</v>
       </c>
@@ -11096,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>2</v>
       </c>
@@ -11117,7 +11149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>2</v>
       </c>
@@ -11138,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>2</v>
       </c>
@@ -11159,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>2</v>
       </c>
@@ -11180,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>2</v>
       </c>
@@ -11201,7 +11233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>2</v>
       </c>
@@ -11222,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>2</v>
       </c>
@@ -11243,7 +11275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>2</v>
       </c>
@@ -11264,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>2</v>
       </c>
@@ -11285,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>2</v>
       </c>
@@ -11306,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>2</v>
       </c>
@@ -11327,7 +11359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>2</v>
       </c>
@@ -11348,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>2</v>
       </c>
@@ -11369,7 +11401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>2</v>
       </c>
@@ -11390,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>2</v>
       </c>
@@ -11411,7 +11443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>2</v>
       </c>
@@ -11432,7 +11464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>2</v>
       </c>
@@ -11453,7 +11485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>2</v>
       </c>
@@ -11474,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>2</v>
       </c>
@@ -11495,7 +11527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>2</v>
       </c>
@@ -11516,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>2</v>
       </c>
@@ -11537,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>2</v>
       </c>
@@ -11558,7 +11590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>2</v>
       </c>
@@ -11579,7 +11611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>2</v>
       </c>
@@ -11600,7 +11632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>2</v>
       </c>
@@ -11621,7 +11653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>2</v>
       </c>
@@ -11642,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>2</v>
       </c>
@@ -11663,7 +11695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>2</v>
       </c>
@@ -11684,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>2</v>
       </c>
@@ -11705,7 +11737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>2</v>
       </c>
@@ -11726,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>2</v>
       </c>
@@ -11747,7 +11779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>2</v>
       </c>
@@ -11768,7 +11800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>2</v>
       </c>
@@ -11789,7 +11821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>2</v>
       </c>
@@ -11810,7 +11842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>2</v>
       </c>
@@ -11831,7 +11863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>2</v>
       </c>
@@ -11852,7 +11884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>2</v>
       </c>
@@ -11873,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>2</v>
       </c>
@@ -11894,7 +11926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>2</v>
       </c>
@@ -11915,7 +11947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>2</v>
       </c>
@@ -11936,7 +11968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>2</v>
       </c>
@@ -11957,7 +11989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>2</v>
       </c>
@@ -11978,7 +12010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>2</v>
       </c>
@@ -11999,7 +12031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>2</v>
       </c>
@@ -12020,7 +12052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>2</v>
       </c>
@@ -12041,7 +12073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>2</v>
       </c>
@@ -12062,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>2</v>
       </c>
@@ -12083,7 +12115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>2</v>
       </c>
@@ -12104,7 +12136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>2</v>
       </c>
@@ -12125,7 +12157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>2</v>
       </c>
@@ -12146,7 +12178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>2</v>
       </c>
@@ -12167,7 +12199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>2</v>
       </c>
@@ -12188,7 +12220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>2</v>
       </c>
@@ -12209,7 +12241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>2</v>
       </c>
@@ -19580,7 +19612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" s="5" t="s">
         <v>116</v>
       </c>
@@ -19601,7 +19633,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" s="5" t="s">
         <v>116</v>
       </c>
@@ -19622,7 +19654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" s="5" t="s">
         <v>116</v>
       </c>
@@ -19643,7 +19675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" s="5" t="s">
         <v>116</v>
       </c>
@@ -19664,7 +19696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="5" t="s">
         <v>116</v>
       </c>
@@ -19685,7 +19717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="5" t="s">
         <v>116</v>
       </c>
@@ -19706,7 +19738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="5" t="s">
         <v>116</v>
       </c>
@@ -19727,7 +19759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="5" t="s">
         <v>116</v>
       </c>
@@ -19748,7 +19780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="5" t="s">
         <v>116</v>
       </c>
@@ -19769,7 +19801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="5" t="s">
         <v>116</v>
       </c>
@@ -19790,7 +19822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="5" t="s">
         <v>116</v>
       </c>
@@ -19811,7 +19843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="5" t="s">
         <v>116</v>
       </c>
@@ -19832,7 +19864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="5" t="s">
         <v>116</v>
       </c>
@@ -19853,7 +19885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="5" t="s">
         <v>116</v>
       </c>
@@ -19874,7 +19906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="5" t="s">
         <v>116</v>
       </c>
@@ -19895,7 +19927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="5" t="s">
         <v>116</v>
       </c>
@@ -19916,7 +19948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="5" t="s">
         <v>116</v>
       </c>
@@ -19937,7 +19969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="5" t="s">
         <v>116</v>
       </c>
@@ -19958,7 +19990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="5" t="s">
         <v>116</v>
       </c>
@@ -19979,7 +20011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="5" t="s">
         <v>116</v>
       </c>
@@ -20000,7 +20032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625" s="5" t="s">
         <v>116</v>
       </c>
@@ -20021,7 +20053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626" s="5" t="s">
         <v>116</v>
       </c>
@@ -20042,7 +20074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" s="5" t="s">
         <v>116</v>
       </c>
@@ -20063,7 +20095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" s="5" t="s">
         <v>116</v>
       </c>
@@ -20084,7 +20116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629" s="5" t="s">
         <v>116</v>
       </c>
@@ -20105,7 +20137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" s="5" t="s">
         <v>116</v>
       </c>
@@ -20126,7 +20158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631" s="5" t="s">
         <v>116</v>
       </c>
@@ -20147,7 +20179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632" s="5" t="s">
         <v>116</v>
       </c>
@@ -20168,7 +20200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633" s="5" t="s">
         <v>116</v>
       </c>
@@ -20189,7 +20221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634" s="5" t="s">
         <v>116</v>
       </c>
@@ -20210,7 +20242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635" s="5" t="s">
         <v>116</v>
       </c>
@@ -20231,7 +20263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636" s="5" t="s">
         <v>116</v>
       </c>
@@ -20252,7 +20284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637" s="5" t="s">
         <v>116</v>
       </c>
@@ -20273,7 +20305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" s="5" t="s">
         <v>116</v>
       </c>
@@ -20294,7 +20326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639" s="5" t="s">
         <v>116</v>
       </c>
@@ -20315,7 +20347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640" s="5" t="s">
         <v>116</v>
       </c>
@@ -20336,7 +20368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641" s="5" t="s">
         <v>116</v>
       </c>
@@ -20357,7 +20389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" s="5" t="s">
         <v>116</v>
       </c>
@@ -20378,7 +20410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643" s="5" t="s">
         <v>116</v>
       </c>
@@ -20399,7 +20431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" s="5" t="s">
         <v>116</v>
       </c>
@@ -20420,7 +20452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" s="5" t="s">
         <v>116</v>
       </c>
@@ -20441,7 +20473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" s="5" t="s">
         <v>116</v>
       </c>
@@ -20462,7 +20494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" s="5" t="s">
         <v>116</v>
       </c>
@@ -20483,7 +20515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" s="5" t="s">
         <v>116</v>
       </c>
@@ -20504,7 +20536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" s="5" t="s">
         <v>116</v>
       </c>
@@ -20525,7 +20557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" s="5" t="s">
         <v>116</v>
       </c>
@@ -20546,7 +20578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651" s="5" t="s">
         <v>116</v>
       </c>
@@ -20567,7 +20599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A652" s="5" t="s">
         <v>116</v>
       </c>
@@ -20588,7 +20620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" s="5" t="s">
         <v>116</v>
       </c>
@@ -20609,7 +20641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654" s="5" t="s">
         <v>116</v>
       </c>
@@ -20630,7 +20662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655" s="5" t="s">
         <v>116</v>
       </c>
@@ -20651,7 +20683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" s="5" t="s">
         <v>116</v>
       </c>
@@ -20672,7 +20704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A657" s="5" t="s">
         <v>116</v>
       </c>
@@ -20693,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658" s="5" t="s">
         <v>116</v>
       </c>
@@ -20714,7 +20746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659" s="5" t="s">
         <v>116</v>
       </c>
@@ -20735,7 +20767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A660" s="5" t="s">
         <v>116</v>
       </c>
@@ -20756,7 +20788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661" s="5" t="s">
         <v>116</v>
       </c>
@@ -20777,7 +20809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662" s="5" t="s">
         <v>116</v>
       </c>
@@ -20798,7 +20830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663" s="5" t="s">
         <v>116</v>
       </c>
@@ -20819,7 +20851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A664" s="5" t="s">
         <v>116</v>
       </c>
@@ -20840,7 +20872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665" s="5" t="s">
         <v>116</v>
       </c>
@@ -20861,7 +20893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666" s="5" t="s">
         <v>116</v>
       </c>
@@ -20882,7 +20914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667" s="5" t="s">
         <v>116</v>
       </c>
@@ -20903,7 +20935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A668" s="5" t="s">
         <v>116</v>
       </c>
@@ -20924,7 +20956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A669" s="5" t="s">
         <v>116</v>
       </c>
@@ -20945,7 +20977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A670" s="5" t="s">
         <v>116</v>
       </c>
@@ -20966,7 +20998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671" s="5" t="s">
         <v>116</v>
       </c>
@@ -20987,7 +21019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672" s="5" t="s">
         <v>116</v>
       </c>
@@ -21008,7 +21040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A673" s="5" t="s">
         <v>116</v>
       </c>
@@ -21029,7 +21061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674" s="5" t="s">
         <v>116</v>
       </c>
@@ -32285,7 +32317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1210" s="5" t="s">
         <v>19</v>
       </c>
@@ -32306,7 +32338,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="1211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1211" s="5" t="s">
         <v>19</v>
       </c>
@@ -32327,7 +32359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1212" s="5" t="s">
         <v>19</v>
       </c>
@@ -32348,7 +32380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1213" s="5" t="s">
         <v>19</v>
       </c>
@@ -32369,7 +32401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1214" s="5" t="s">
         <v>19</v>
       </c>
@@ -32390,7 +32422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1215" s="5" t="s">
         <v>19</v>
       </c>
@@ -32411,7 +32443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1216" s="5" t="s">
         <v>19</v>
       </c>
@@ -32432,7 +32464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1217" s="5" t="s">
         <v>19</v>
       </c>
@@ -32453,7 +32485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1218" s="5" t="s">
         <v>19</v>
       </c>
@@ -32474,7 +32506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1219" s="5" t="s">
         <v>19</v>
       </c>
@@ -32495,7 +32527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1220" s="5" t="s">
         <v>19</v>
       </c>
@@ -32516,7 +32548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1221" s="5" t="s">
         <v>19</v>
       </c>
@@ -32537,7 +32569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1222" s="5" t="s">
         <v>19</v>
       </c>
@@ -32558,7 +32590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1223" s="5" t="s">
         <v>19</v>
       </c>
@@ -32579,7 +32611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1224" s="5" t="s">
         <v>19</v>
       </c>
@@ -32600,7 +32632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1225" s="5" t="s">
         <v>19</v>
       </c>
@@ -32621,7 +32653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1226" s="5" t="s">
         <v>19</v>
       </c>
@@ -32642,7 +32674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1227" s="5" t="s">
         <v>19</v>
       </c>
@@ -32663,7 +32695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1228" s="5" t="s">
         <v>19</v>
       </c>
@@ -32684,7 +32716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1229" s="5" t="s">
         <v>19</v>
       </c>
@@ -32705,7 +32737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1230" s="5" t="s">
         <v>19</v>
       </c>
@@ -32726,7 +32758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1231" s="5" t="s">
         <v>19</v>
       </c>
@@ -32747,7 +32779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1232" s="5" t="s">
         <v>19</v>
       </c>
@@ -32768,7 +32800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1233" s="5" t="s">
         <v>19</v>
       </c>
@@ -32789,7 +32821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1234" s="5" t="s">
         <v>19</v>
       </c>
@@ -32810,7 +32842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1235" s="5" t="s">
         <v>19</v>
       </c>
@@ -32831,7 +32863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1236" s="5" t="s">
         <v>19</v>
       </c>
@@ -32852,7 +32884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1237" s="5" t="s">
         <v>19</v>
       </c>
@@ -32873,7 +32905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1238" s="5" t="s">
         <v>19</v>
       </c>
@@ -32894,7 +32926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1239" s="5" t="s">
         <v>19</v>
       </c>
@@ -32915,7 +32947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1240" s="5" t="s">
         <v>19</v>
       </c>
@@ -32936,7 +32968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1241" s="5" t="s">
         <v>19</v>
       </c>
@@ -32957,7 +32989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1242" s="5" t="s">
         <v>19</v>
       </c>
@@ -32978,7 +33010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1243" s="5" t="s">
         <v>19</v>
       </c>
@@ -32999,7 +33031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1244" s="5" t="s">
         <v>19</v>
       </c>
@@ -33020,7 +33052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1245" s="5" t="s">
         <v>19</v>
       </c>
@@ -33041,7 +33073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1246" s="5" t="s">
         <v>19</v>
       </c>
@@ -33062,7 +33094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1247" s="5" t="s">
         <v>19</v>
       </c>
@@ -33083,7 +33115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1248" s="5" t="s">
         <v>19</v>
       </c>
@@ -33104,7 +33136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1249" s="5" t="s">
         <v>19</v>
       </c>
@@ -33125,7 +33157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1250" s="5" t="s">
         <v>19</v>
       </c>
@@ -33146,7 +33178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1251" s="5" t="s">
         <v>19</v>
       </c>
@@ -33167,7 +33199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1252" s="5" t="s">
         <v>19</v>
       </c>
@@ -33188,7 +33220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1253" s="5" t="s">
         <v>19</v>
       </c>
@@ -33209,7 +33241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1254" s="5" t="s">
         <v>19</v>
       </c>
@@ -33230,7 +33262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1255" s="5" t="s">
         <v>19</v>
       </c>
@@ -33251,7 +33283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1256" s="5" t="s">
         <v>19</v>
       </c>
@@ -33272,7 +33304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1257" s="5" t="s">
         <v>19</v>
       </c>
@@ -33293,7 +33325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1258" s="5" t="s">
         <v>19</v>
       </c>
@@ -33314,7 +33346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1259" s="5" t="s">
         <v>19</v>
       </c>
@@ -33335,7 +33367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1260" s="5" t="s">
         <v>19</v>
       </c>
@@ -33356,7 +33388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1261" s="5" t="s">
         <v>19</v>
       </c>
@@ -33377,7 +33409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1262" s="5" t="s">
         <v>19</v>
       </c>
@@ -33398,7 +33430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1263" s="5" t="s">
         <v>19</v>
       </c>
@@ -33419,7 +33451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1264" s="5" t="s">
         <v>19</v>
       </c>
@@ -33440,7 +33472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1265" s="5" t="s">
         <v>19</v>
       </c>
@@ -33461,7 +33493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1266" s="5" t="s">
         <v>19</v>
       </c>
@@ -33482,7 +33514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1267" s="5" t="s">
         <v>19</v>
       </c>
@@ -33503,7 +33535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1268" s="5" t="s">
         <v>19</v>
       </c>
@@ -33524,7 +33556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1269" s="5" t="s">
         <v>19</v>
       </c>
@@ -33545,7 +33577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1270" s="5" t="s">
         <v>19</v>
       </c>
@@ -33566,7 +33598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1271" s="5" t="s">
         <v>19</v>
       </c>
@@ -33587,7 +33619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1272" s="5" t="s">
         <v>19</v>
       </c>
@@ -33608,7 +33640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1273" s="5" t="s">
         <v>19</v>
       </c>
@@ -33629,7 +33661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1274" s="5" t="s">
         <v>19</v>
       </c>
@@ -33650,7 +33682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1275" s="5" t="s">
         <v>19</v>
       </c>
@@ -33671,7 +33703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1276" s="5" t="s">
         <v>19</v>
       </c>
@@ -33692,7 +33724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1277" s="5" t="s">
         <v>19</v>
       </c>
@@ -33713,7 +33745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1278" s="5" t="s">
         <v>19</v>
       </c>
@@ -33734,7 +33766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1279" s="5" t="s">
         <v>19</v>
       </c>
@@ -35733,8 +35765,8 @@
   <autoFilter ref="A1:F1373" xr:uid="{8469AECF-2B40-44F9-877E-CCFB175FAFBD}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Acanthocybium solandri"/>
-        <filter val="Scomberomorus cavalla"/>
+        <filter val="Epinephelus guttatus"/>
+        <filter val="Lutjanus analis"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -39033,19 +39065,10 @@
       <c r="A5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43">
-        <v>1</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
     </row>
@@ -39053,23 +39076,16 @@
       <c r="A6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43">
-        <v>1</v>
-      </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43">
-        <v>1</v>
-      </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
     </row>
@@ -39077,23 +39093,16 @@
       <c r="A7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43">
-        <v>1</v>
-      </c>
-      <c r="G7" s="43">
-        <v>1</v>
-      </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <v>1</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>3</v>
       </c>
     </row>
@@ -39101,19 +39110,10 @@
       <c r="A8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43">
-        <v>1</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
     </row>
@@ -39121,23 +39121,16 @@
       <c r="A9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43">
-        <v>1</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43">
-        <v>1</v>
-      </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43">
-        <v>1</v>
-      </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
     </row>
@@ -39145,21 +39138,13 @@
       <c r="A10" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43">
-        <v>1</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43">
-        <v>1</v>
-      </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>2</v>
       </c>
     </row>
@@ -39167,23 +39152,16 @@
       <c r="A11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43">
-        <v>1</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43">
-        <v>1</v>
-      </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43">
-        <v>1</v>
-      </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>3</v>
       </c>
     </row>
@@ -39191,21 +39169,13 @@
       <c r="A12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43">
-        <v>1</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43">
-        <v>1</v>
-      </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>2</v>
       </c>
     </row>
@@ -39213,23 +39183,16 @@
       <c r="A13" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43">
-        <v>1</v>
-      </c>
-      <c r="G13" s="43">
-        <v>1</v>
-      </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43">
-        <v>1</v>
-      </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>3</v>
       </c>
     </row>
@@ -39237,23 +39200,16 @@
       <c r="A14" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="43">
-        <v>1</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43">
-        <v>1</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43">
-        <v>1</v>
-      </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>3</v>
       </c>
     </row>
@@ -39261,25 +39217,19 @@
       <c r="A15" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43">
-        <v>1</v>
-      </c>
-      <c r="G15" s="43">
-        <v>1</v>
-      </c>
-      <c r="H15" s="43">
-        <v>1</v>
-      </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43">
-        <v>1</v>
-      </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>4</v>
       </c>
     </row>
@@ -39287,21 +39237,13 @@
       <c r="A16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43">
-        <v>1</v>
-      </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43">
-        <v>1</v>
-      </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>2</v>
       </c>
     </row>
@@ -39309,23 +39251,16 @@
       <c r="A17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43">
-        <v>1</v>
-      </c>
-      <c r="I17" s="43">
-        <v>1</v>
-      </c>
-      <c r="J17" s="43">
-        <v>1</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>3</v>
       </c>
     </row>
@@ -39333,25 +39268,19 @@
       <c r="A18" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43">
-        <v>1</v>
-      </c>
-      <c r="G18" s="43">
-        <v>1</v>
-      </c>
-      <c r="H18" s="43">
-        <v>1</v>
-      </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43">
-        <v>1</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>4</v>
       </c>
     </row>
@@ -39359,19 +39288,10 @@
       <c r="A19" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43">
-        <v>1</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>1</v>
       </c>
     </row>
@@ -39379,23 +39299,16 @@
       <c r="A20" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43">
-        <v>1</v>
-      </c>
-      <c r="G20" s="43">
-        <v>1</v>
-      </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43">
-        <v>1</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>3</v>
       </c>
     </row>
@@ -39403,25 +39316,19 @@
       <c r="A21" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43">
-        <v>1</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43">
-        <v>1</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43">
-        <v>1</v>
-      </c>
-      <c r="K21" s="43">
-        <v>1</v>
-      </c>
-      <c r="L21" s="43">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>4</v>
       </c>
     </row>
@@ -39429,21 +39336,13 @@
       <c r="A22" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43">
-        <v>1</v>
-      </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43">
-        <v>1</v>
-      </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>2</v>
       </c>
     </row>
@@ -39451,25 +39350,19 @@
       <c r="A23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43">
-        <v>1</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43">
-        <v>1</v>
-      </c>
-      <c r="G23" s="43">
-        <v>1</v>
-      </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43">
-        <v>1</v>
-      </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>4</v>
       </c>
     </row>
@@ -39477,21 +39370,13 @@
       <c r="A24" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43">
-        <v>1</v>
-      </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43">
-        <v>1</v>
-      </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>2</v>
       </c>
     </row>
@@ -39499,23 +39384,16 @@
       <c r="A25" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43">
-        <v>1</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43">
-        <v>1</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43">
-        <v>1</v>
-      </c>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>3</v>
       </c>
     </row>
@@ -39523,21 +39401,13 @@
       <c r="A26" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43">
-        <v>1</v>
-      </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43">
-        <v>1</v>
-      </c>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>2</v>
       </c>
     </row>
@@ -39545,23 +39415,16 @@
       <c r="A27" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43">
-        <v>1</v>
-      </c>
-      <c r="G27" s="43">
-        <v>1</v>
-      </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43">
-        <v>1</v>
-      </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="L27">
         <v>3</v>
       </c>
     </row>
@@ -39569,19 +39432,10 @@
       <c r="A28" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43">
-        <v>1</v>
-      </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>1</v>
       </c>
     </row>
@@ -39589,37 +39443,37 @@
       <c r="A29" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="B29" s="43">
-        <v>1</v>
-      </c>
-      <c r="C29" s="43">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" s="43">
-        <v>1</v>
-      </c>
-      <c r="F29" s="43">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>14</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29">
         <v>11</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29">
         <v>7</v>
       </c>
-      <c r="I29" s="43">
-        <v>1</v>
-      </c>
-      <c r="J29" s="43">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
         <v>20</v>
       </c>
-      <c r="K29" s="43">
-        <v>1</v>
-      </c>
-      <c r="L29" s="43">
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>62</v>
       </c>
     </row>
